--- a/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2584AD3-8953-4748-BEDB-BB7114529431}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E979E381-AC59-42F8-A25F-870F3808772D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E979E381-AC59-42F8-A25F-870F3808772D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E91991-9AB6-4C50-B443-8381CE154D37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="9" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="10" r:id="rId4"/>
+    <sheet name="Norway" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -106,6 +109,24 @@
   </si>
   <si>
     <t>NGC-3463/T1197/T1215</t>
+  </si>
+  <si>
+    <t>Denmark market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2009</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2021</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1924</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
   </si>
 </sst>
 </file>
@@ -529,7 +550,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -797,4 +818,415 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45ED4ACA-CD6E-4768-BD4C-EDC794475084}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D10A1E2-175E-4344-8F81-53C04DB0D80D}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F1065B-AD3F-46BB-8EFE-AEF0123E4A54}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E91991-9AB6-4C50-B443-8381CE154D37}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3AF74D-8812-4AF6-B698-9B2CE2930904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="Denmark" sheetId="9" r:id="rId3"/>
     <sheet name="Sweden" sheetId="10" r:id="rId4"/>
     <sheet name="Norway" sheetId="11" r:id="rId5"/>
+    <sheet name="Italy" sheetId="13" r:id="rId6"/>
+    <sheet name="Spain" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -127,6 +129,18 @@
   </si>
   <si>
     <t>Norway Market</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T2125</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1972</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F1065B-AD3F-46BB-8EFE-AEF0123E4A54}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1229,4 +1243,278 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF690B57-7BD5-409F-B06A-5344B21F3508}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7DBF569-8974-4334-BB7C-FF3F02DB4FB1}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D3AF74D-8812-4AF6-B698-9B2CE2930904}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B531A6C-BDA4-4E69-B8D1-C7861FA12B27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Norway" sheetId="11" r:id="rId5"/>
     <sheet name="Italy" sheetId="13" r:id="rId6"/>
     <sheet name="Spain" sheetId="12" r:id="rId7"/>
+    <sheet name="Romania" sheetId="14" r:id="rId8"/>
+    <sheet name="Slovakia" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -141,6 +143,18 @@
   </si>
   <si>
     <t>NGC-3443/T1972</t>
+  </si>
+  <si>
+    <t>Romania Market</t>
+  </si>
+  <si>
+    <t>NGC-4307/T3533/T3549</t>
+  </si>
+  <si>
+    <t>NGC-4306/T3556/T3566</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -702,7 +716,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A18"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1249,8 +1263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF690B57-7BD5-409F-B06A-5344B21F3508}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1517,4 +1531,278 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A02C901-FFA3-4B94-BBDB-9B0F62DAD895}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CD6694-8A61-4A70-8C5B-96A0BA209462}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B531A6C-BDA4-4E69-B8D1-C7861FA12B27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C325B5-D5D5-4F11-91BE-B3D65B156B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Spain" sheetId="12" r:id="rId7"/>
     <sheet name="Romania" sheetId="14" r:id="rId8"/>
     <sheet name="Slovakia" sheetId="15" r:id="rId9"/>
+    <sheet name="Hungary" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="40">
   <si>
     <t>Wg</t>
   </si>
@@ -155,6 +156,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3590/T3615</t>
   </si>
 </sst>
 </file>
@@ -711,6 +718,143 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE54759-850D-4D17-BF97-5D018992EDF4}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE99313-E25B-46AF-9427-E0EA81FBAA22}">
   <dimension ref="A1:D18"/>
@@ -1674,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9CD6694-8A61-4A70-8C5B-96A0BA209462}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
+++ b/Test Data/FC_Gallery_Ethernet_AttachedFunctionality_FC600_FC700_Series_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C325B5-D5D5-4F11-91BE-B3D65B156B79}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A074E6-3616-4A53-A10E-8861E12F3E74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="7" r:id="rId1"/>
@@ -113,9 +113,6 @@
     <t>UK and Turkey Market</t>
   </si>
   <si>
-    <t>NGC-3463/T1197/T1215</t>
-  </si>
-  <si>
     <t>Denmark market</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>NGC-4308/T3590/T3615</t>
+  </si>
+  <si>
+    <t>NGC-3003 and NGC-3463/T1197/T1215/T3830</t>
   </si>
 </sst>
 </file>
@@ -585,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -632,7 +632,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -722,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE54759-850D-4D17-BF97-5D018992EDF4}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -769,7 +769,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1021,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1043,7 +1043,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1158,7 +1158,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1180,7 +1180,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1295,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1317,7 +1317,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1454,7 +1454,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1569,7 +1569,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1591,7 +1591,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1706,7 +1706,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1728,7 +1728,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -1843,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1865,7 +1865,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
